--- a/spliced/falling/2023-03-21_15-38-07/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-38-07/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1010981947183609</v>
+        <v>-0.0467311926186084</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0174096599221229</v>
+        <v>0.0064140851609408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0068722339347004</v>
+        <v>-0.0200058370828628</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.07284568250179289</v>
+        <v>-0.1010981947183609</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8498662710189819</v>
+        <v>-0.0174096599221229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07269296050071709</v>
+        <v>0.0068722339347004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.371697902679443</v>
+        <v>0.07284568250179289</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2721404731273651</v>
+        <v>0.8498662710189819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4282165467739105</v>
+        <v>0.07269296050071709</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.862528085708618</v>
+        <v>-1.371697902679443</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6116288304328918</v>
+        <v>0.2721404731273651</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1165225431323051</v>
+        <v>0.4282165467739105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1780672222375869</v>
+        <v>1.862528085708618</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.1233811378479</v>
+        <v>-0.6116288304328918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2745839357376098</v>
+        <v>-0.1165225431323051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.8069530129432678</v>
+        <v>0.1780672222375869</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.977384388446808</v>
+        <v>-1.1233811378479</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.019839525222778</v>
+        <v>0.2745839357376098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.010829210281372</v>
+        <v>-0.8069530129432678</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7066183686256409</v>
+        <v>-0.977384388446808</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.013883590698242</v>
+        <v>-1.019839525222778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.994003295898437</v>
+        <v>-1.010829210281372</v>
       </c>
       <c r="B9" t="n">
-        <v>-9.562789916992188</v>
+        <v>0.7066183686256409</v>
       </c>
       <c r="C9" t="n">
-        <v>2.036166667938232</v>
+        <v>-1.013883590698242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.309515237808228</v>
+        <v>-2.994003295898437</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9964739084243774</v>
+        <v>-9.562789916992188</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.302059292793274</v>
+        <v>2.036166667938232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.96409809589386</v>
+        <v>-3.309515237808228</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.817005157470703</v>
+        <v>-0.9964739084243774</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.337794899940491</v>
+        <v>-1.302059292793274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1733330190181732</v>
+        <v>-0.96409809589386</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3347541689872741</v>
+        <v>-2.817005157470703</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2535090744495392</v>
+        <v>-1.337794899940491</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.2247984111309051</v>
+        <v>0.1733330190181732</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4734205603599548</v>
+        <v>-0.3347541689872741</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3132211565971374</v>
+        <v>0.2535090744495392</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.459051609039307</v>
+        <v>-0.2247984111309051</v>
       </c>
       <c r="B14" t="n">
-        <v>1.565494894981384</v>
+        <v>0.4734205603599548</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7967209815979004</v>
+        <v>-0.3132211565971374</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2709187269210815</v>
+        <v>1.459051609039307</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9358455538749696</v>
+        <v>1.565494894981384</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3923282027244568</v>
+        <v>-0.7967209815979004</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1609629988670349</v>
+        <v>0.2709187269210815</v>
       </c>
       <c r="B16" t="n">
-        <v>1.449430465698242</v>
+        <v>0.9358455538749696</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1336267739534378</v>
+        <v>-0.3923282027244568</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2974913716316223</v>
+        <v>0.1609629988670349</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1624901592731475</v>
+        <v>1.449430465698242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1886046379804611</v>
+        <v>-0.1336267739534378</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0355829000473022</v>
+        <v>0.2974913716316223</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.517389297485352</v>
+        <v>-0.1624901592731475</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4433354437351227</v>
+        <v>0.1886046379804611</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0959058403968811</v>
+        <v>-0.0355829000473022</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4607451260089874</v>
+        <v>-1.517389297485352</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2782491147518158</v>
+        <v>0.4433354437351227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1259909570217132</v>
+        <v>0.0959058403968811</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1007927656173706</v>
+        <v>0.4607451260089874</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0125227374956011</v>
+        <v>-0.2782491147518158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1461495161056518</v>
+        <v>0.1259909570217132</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1336267739534378</v>
+        <v>0.1007927656173706</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1892155110836029</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.117286130785942</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.7583891749382019</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.07605272531509399</v>
+        <v>0.0125227374956011</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-38-07/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-38-07/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0467311926186084</v>
+        <v>-0.1724167168140411</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0064140851609408</v>
+        <v>-0.3089450895786285</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0200058370828628</v>
+        <v>0.9990701079368592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1010981947183609</v>
+        <v>-0.1458440721035003</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0174096599221229</v>
+        <v>-0.0731511116027832</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0068722339347004</v>
+        <v>-0.1902845203876495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.07284568250179289</v>
+        <v>0.0277943685650825</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8498662710189819</v>
+        <v>-0.0499382354319095</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07269296050071709</v>
+        <v>0.04505131021142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.371697902679443</v>
+        <v>-0.042302418500185</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2721404731273651</v>
+        <v>-0.052381694316864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4282165467739105</v>
+        <v>-0.0262672062963247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.862528085708618</v>
+        <v>0.07803803682327271</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6116288304328918</v>
+        <v>-0.0073303831741213</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1165225431323051</v>
+        <v>0.0215329993516206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1780672222375869</v>
+        <v>-0.0259617734700441</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.1233811378479</v>
+        <v>-0.0493273697793483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2745839357376098</v>
+        <v>-0.0320704244077205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.8069530129432678</v>
+        <v>-0.117286130785942</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.977384388446808</v>
+        <v>-0.0560468845069408</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.019839525222778</v>
+        <v>-0.0174096599221229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.010829210281372</v>
+        <v>-0.0467311926186084</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7066183686256409</v>
+        <v>0.0064140851609408</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.013883590698242</v>
+        <v>-0.0200058370828628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.994003295898437</v>
+        <v>-0.1010981947183609</v>
       </c>
       <c r="B10" t="n">
-        <v>-9.562789916992188</v>
+        <v>-0.0174096599221229</v>
       </c>
       <c r="C10" t="n">
-        <v>2.036166667938232</v>
+        <v>0.0068722339347004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.309515237808228</v>
+        <v>0.07284568250179289</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9964739084243774</v>
+        <v>0.8498662710189819</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.302059292793274</v>
+        <v>0.07269296050071709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.96409809589386</v>
+        <v>-1.371697902679443</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.817005157470703</v>
+        <v>0.2721404731273651</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.337794899940491</v>
+        <v>0.4282165467739105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1733330190181732</v>
+        <v>1.862528085708618</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3347541689872741</v>
+        <v>-0.6116288304328918</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2535090744495392</v>
+        <v>-0.1165225431323051</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.2247984111309051</v>
+        <v>0.1780672222375869</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4734205603599548</v>
+        <v>-1.1233811378479</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3132211565971374</v>
+        <v>0.2745839357376098</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.459051609039307</v>
+        <v>-0.8069530129432678</v>
       </c>
       <c r="B15" t="n">
-        <v>1.565494894981384</v>
+        <v>-0.977384388446808</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7967209815979004</v>
+        <v>-1.019839525222778</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2709187269210815</v>
+        <v>-1.010829210281372</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9358455538749696</v>
+        <v>0.7066183686256409</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3923282027244568</v>
+        <v>-1.013883590698242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1609629988670349</v>
+        <v>-2.994003295898437</v>
       </c>
       <c r="B17" t="n">
-        <v>1.449430465698242</v>
+        <v>-9.562789916992188</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1336267739534378</v>
+        <v>2.036166667938232</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2974913716316223</v>
+        <v>-3.309515237808228</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1624901592731475</v>
+        <v>-0.9964739084243774</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1886046379804611</v>
+        <v>-1.302059292793274</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0355829000473022</v>
+        <v>-0.96409809589386</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.517389297485352</v>
+        <v>-2.817005157470703</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4433354437351227</v>
+        <v>-1.337794899940491</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0959058403968811</v>
+        <v>0.1733330190181732</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4607451260089874</v>
+        <v>-0.3347541689872741</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2782491147518158</v>
+        <v>0.2535090744495392</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.2247984111309051</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4734205603599548</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.3132211565971374</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.459051609039307</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.565494894981384</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.7967209815979004</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.2709187269210815</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9358455538749696</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.3923282027244568</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.1609629988670349</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.449430465698242</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.1336267739534378</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.2974913716316223</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.1624901592731475</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1886046379804611</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0355829000473022</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.517389297485352</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4433354437351227</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0959058403968811</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4607451260089874</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2782491147518158</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>0.1259909570217132</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>0.1007927656173706</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>0.0125227374956011</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.1461495161056518</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1336267739534378</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1892155110836029</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.117286130785942</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7583891749382019</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.07605272531509399</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.1061378344893455</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2086104750633239</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1314887404441833</v>
       </c>
     </row>
   </sheetData>
